--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cntf-Lifr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cntf-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Lifr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.692341400862012</v>
+        <v>0.2380766666666667</v>
       </c>
       <c r="H2">
-        <v>0.692341400862012</v>
+        <v>0.71423</v>
       </c>
       <c r="I2">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="J2">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.6781126215234</v>
+        <v>25.84039</v>
       </c>
       <c r="N2">
-        <v>22.6781126215234</v>
+        <v>77.52117</v>
       </c>
       <c r="O2">
-        <v>0.2528922870300491</v>
+        <v>0.2579718564739331</v>
       </c>
       <c r="P2">
-        <v>0.2528922870300491</v>
+        <v>0.2579718564739332</v>
       </c>
       <c r="Q2">
-        <v>15.70099626129199</v>
+        <v>6.151993916566667</v>
       </c>
       <c r="R2">
-        <v>15.70099626129199</v>
+        <v>55.3679452491</v>
       </c>
       <c r="S2">
-        <v>0.04801468490277295</v>
+        <v>0.01307230978813048</v>
       </c>
       <c r="T2">
-        <v>0.04801468490277295</v>
+        <v>0.01307230978813049</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.692341400862012</v>
+        <v>0.2380766666666667</v>
       </c>
       <c r="H3">
-        <v>0.692341400862012</v>
+        <v>0.71423</v>
       </c>
       <c r="I3">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="J3">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.8133852144442</v>
+        <v>14.837618</v>
       </c>
       <c r="N3">
-        <v>14.8133852144442</v>
+        <v>44.512854</v>
       </c>
       <c r="O3">
-        <v>0.165189710804349</v>
+        <v>0.1481280995027957</v>
       </c>
       <c r="P3">
-        <v>0.165189710804349</v>
+        <v>0.1481280995027957</v>
       </c>
       <c r="Q3">
-        <v>10.25591987087691</v>
+        <v>3.532490634713334</v>
       </c>
       <c r="R3">
-        <v>10.25591987087691</v>
+        <v>31.79241571242</v>
       </c>
       <c r="S3">
-        <v>0.03136328120797361</v>
+        <v>0.007506153700232119</v>
       </c>
       <c r="T3">
-        <v>0.03136328120797361</v>
+        <v>0.007506153700232119</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.692341400862012</v>
+        <v>0.2380766666666667</v>
       </c>
       <c r="H4">
-        <v>0.692341400862012</v>
+        <v>0.71423</v>
       </c>
       <c r="I4">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="J4">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.01579144451239</v>
+        <v>9.696099333333335</v>
       </c>
       <c r="N4">
-        <v>9.01579144451239</v>
+        <v>29.088298</v>
       </c>
       <c r="O4">
-        <v>0.1005385305135471</v>
+        <v>0.09679887747730068</v>
       </c>
       <c r="P4">
-        <v>0.1005385305135471</v>
+        <v>0.09679887747730068</v>
       </c>
       <c r="Q4">
-        <v>6.242005678573451</v>
+        <v>2.308415008948889</v>
       </c>
       <c r="R4">
-        <v>6.242005678573451</v>
+        <v>20.77573508054</v>
       </c>
       <c r="S4">
-        <v>0.01908846616038629</v>
+        <v>0.004905127756269113</v>
       </c>
       <c r="T4">
-        <v>0.01908846616038629</v>
+        <v>0.004905127756269112</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.692341400862012</v>
+        <v>0.2380766666666667</v>
       </c>
       <c r="H5">
-        <v>0.692341400862012</v>
+        <v>0.71423</v>
       </c>
       <c r="I5">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="J5">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.263555245816</v>
+        <v>29.18610833333333</v>
       </c>
       <c r="N5">
-        <v>26.263555245816</v>
+        <v>87.558325</v>
       </c>
       <c r="O5">
-        <v>0.2928749258150692</v>
+        <v>0.2913731004059664</v>
       </c>
       <c r="P5">
-        <v>0.2928749258150692</v>
+        <v>0.2913731004059664</v>
       </c>
       <c r="Q5">
-        <v>18.1833466305051</v>
+        <v>6.948531384972223</v>
       </c>
       <c r="R5">
-        <v>18.1833466305051</v>
+        <v>62.53678246475</v>
       </c>
       <c r="S5">
-        <v>0.05560587649421925</v>
+        <v>0.01476486421618521</v>
       </c>
       <c r="T5">
-        <v>0.05560587649421925</v>
+        <v>0.01476486421618521</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.692341400862012</v>
+        <v>0.2380766666666667</v>
       </c>
       <c r="H6">
-        <v>0.692341400862012</v>
+        <v>0.71423</v>
       </c>
       <c r="I6">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="J6">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.21993044544737</v>
+        <v>5.334888666666667</v>
       </c>
       <c r="N6">
-        <v>5.21993044544737</v>
+        <v>16.004666</v>
       </c>
       <c r="O6">
-        <v>0.0582094361430282</v>
+        <v>0.05325968893742494</v>
       </c>
       <c r="P6">
-        <v>0.0582094361430282</v>
+        <v>0.05325968893742494</v>
       </c>
       <c r="Q6">
-        <v>3.613973957003299</v>
+        <v>1.270112510797778</v>
       </c>
       <c r="R6">
-        <v>3.613973957003299</v>
+        <v>11.43101259718</v>
       </c>
       <c r="S6">
-        <v>0.01105177135925655</v>
+        <v>0.002698849256371636</v>
       </c>
       <c r="T6">
-        <v>0.01105177135925655</v>
+        <v>0.002698849256371636</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.692341400862012</v>
+        <v>0.2380766666666667</v>
       </c>
       <c r="H7">
-        <v>0.692341400862012</v>
+        <v>0.71423</v>
       </c>
       <c r="I7">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="J7">
-        <v>0.1898621957460797</v>
+        <v>0.05067339502381486</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.6842123038818</v>
+        <v>15.27237266666666</v>
       </c>
       <c r="N7">
-        <v>11.6842123038818</v>
+        <v>45.81711799999999</v>
       </c>
       <c r="O7">
-        <v>0.1302951096939572</v>
+        <v>0.1524683772025791</v>
       </c>
       <c r="P7">
-        <v>0.1302951096939572</v>
+        <v>0.1524683772025791</v>
       </c>
       <c r="Q7">
-        <v>8.089463914438682</v>
+        <v>3.635995576571111</v>
       </c>
       <c r="R7">
-        <v>8.089463914438682</v>
+        <v>32.72396018913999</v>
       </c>
       <c r="S7">
-        <v>0.02473811562147103</v>
+        <v>0.007726090306626298</v>
       </c>
       <c r="T7">
-        <v>0.02473811562147103</v>
+        <v>0.007726090306626297</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.58556292553231</v>
+        <v>0.2776743333333334</v>
       </c>
       <c r="H8">
-        <v>1.58556292553231</v>
+        <v>0.8330230000000001</v>
       </c>
       <c r="I8">
-        <v>0.4348121579329634</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="J8">
-        <v>0.4348121579329634</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.6781126215234</v>
+        <v>25.84039</v>
       </c>
       <c r="N8">
-        <v>22.6781126215234</v>
+        <v>77.52117</v>
       </c>
       <c r="O8">
-        <v>0.2528922870300491</v>
+        <v>0.2579718564739331</v>
       </c>
       <c r="P8">
-        <v>0.2528922870300491</v>
+        <v>0.2579718564739332</v>
       </c>
       <c r="Q8">
-        <v>35.95757459373385</v>
+        <v>7.175213066323334</v>
       </c>
       <c r="R8">
-        <v>35.95757459373385</v>
+        <v>64.57691759691001</v>
       </c>
       <c r="S8">
-        <v>0.109960641048138</v>
+        <v>0.01524653783324394</v>
       </c>
       <c r="T8">
-        <v>0.109960641048138</v>
+        <v>0.01524653783324395</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.58556292553231</v>
+        <v>0.2776743333333334</v>
       </c>
       <c r="H9">
-        <v>1.58556292553231</v>
+        <v>0.8330230000000001</v>
       </c>
       <c r="I9">
-        <v>0.4348121579329634</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="J9">
-        <v>0.4348121579329634</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.8133852144442</v>
+        <v>14.837618</v>
       </c>
       <c r="N9">
-        <v>14.8133852144442</v>
+        <v>44.512854</v>
       </c>
       <c r="O9">
-        <v>0.165189710804349</v>
+        <v>0.1481280995027957</v>
       </c>
       <c r="P9">
-        <v>0.165189710804349</v>
+        <v>0.1481280995027957</v>
       </c>
       <c r="Q9">
-        <v>23.48755439765121</v>
+        <v>4.120025686404666</v>
       </c>
       <c r="R9">
-        <v>23.48755439765121</v>
+        <v>37.080231177642</v>
       </c>
       <c r="S9">
-        <v>0.07182649462316115</v>
+        <v>0.00875460100223802</v>
       </c>
       <c r="T9">
-        <v>0.07182649462316115</v>
+        <v>0.00875460100223802</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.58556292553231</v>
+        <v>0.2776743333333334</v>
       </c>
       <c r="H10">
-        <v>1.58556292553231</v>
+        <v>0.8330230000000001</v>
       </c>
       <c r="I10">
-        <v>0.4348121579329634</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="J10">
-        <v>0.4348121579329634</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.01579144451239</v>
+        <v>9.696099333333335</v>
       </c>
       <c r="N10">
-        <v>9.01579144451239</v>
+        <v>29.088298</v>
       </c>
       <c r="O10">
-        <v>0.1005385305135471</v>
+        <v>0.09679887747730068</v>
       </c>
       <c r="P10">
-        <v>0.1005385305135471</v>
+        <v>0.09679887747730068</v>
       </c>
       <c r="Q10">
-        <v>14.29510465875024</v>
+        <v>2.692357918317112</v>
       </c>
       <c r="R10">
-        <v>14.29510465875024</v>
+        <v>24.231221264854</v>
       </c>
       <c r="S10">
-        <v>0.0437153754080045</v>
+        <v>0.005720964169680026</v>
       </c>
       <c r="T10">
-        <v>0.0437153754080045</v>
+        <v>0.005720964169680026</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.58556292553231</v>
+        <v>0.2776743333333334</v>
       </c>
       <c r="H11">
-        <v>1.58556292553231</v>
+        <v>0.8330230000000001</v>
       </c>
       <c r="I11">
-        <v>0.4348121579329634</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="J11">
-        <v>0.4348121579329634</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>26.263555245816</v>
+        <v>29.18610833333333</v>
       </c>
       <c r="N11">
-        <v>26.263555245816</v>
+        <v>87.558325</v>
       </c>
       <c r="O11">
-        <v>0.2928749258150692</v>
+        <v>0.2913731004059664</v>
       </c>
       <c r="P11">
-        <v>0.2928749258150692</v>
+        <v>0.2913731004059664</v>
       </c>
       <c r="Q11">
-        <v>41.64251949043547</v>
+        <v>8.104233174052778</v>
       </c>
       <c r="R11">
-        <v>41.64251949043547</v>
+        <v>72.93809856647501</v>
       </c>
       <c r="S11">
-        <v>0.1273455784981068</v>
+        <v>0.01722060328459915</v>
       </c>
       <c r="T11">
-        <v>0.1273455784981068</v>
+        <v>0.01722060328459915</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.58556292553231</v>
+        <v>0.2776743333333334</v>
       </c>
       <c r="H12">
-        <v>1.58556292553231</v>
+        <v>0.8330230000000001</v>
       </c>
       <c r="I12">
-        <v>0.4348121579329634</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="J12">
-        <v>0.4348121579329634</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.21993044544737</v>
+        <v>5.334888666666667</v>
       </c>
       <c r="N12">
-        <v>5.21993044544737</v>
+        <v>16.004666</v>
       </c>
       <c r="O12">
-        <v>0.0582094361430282</v>
+        <v>0.05325968893742494</v>
       </c>
       <c r="P12">
-        <v>0.0582094361430282</v>
+        <v>0.05325968893742494</v>
       </c>
       <c r="Q12">
-        <v>8.276528188158707</v>
+        <v>1.481361653924222</v>
       </c>
       <c r="R12">
-        <v>8.276528188158707</v>
+        <v>13.332254885318</v>
       </c>
       <c r="S12">
-        <v>0.02531017054141112</v>
+        <v>0.003147730428700096</v>
       </c>
       <c r="T12">
-        <v>0.02531017054141112</v>
+        <v>0.003147730428700096</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.58556292553231</v>
+        <v>0.2776743333333334</v>
       </c>
       <c r="H13">
-        <v>1.58556292553231</v>
+        <v>0.8330230000000001</v>
       </c>
       <c r="I13">
-        <v>0.4348121579329634</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="J13">
-        <v>0.4348121579329634</v>
+        <v>0.05910155488137341</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.6842123038818</v>
+        <v>15.27237266666666</v>
       </c>
       <c r="N13">
-        <v>11.6842123038818</v>
+        <v>45.81711799999999</v>
       </c>
       <c r="O13">
-        <v>0.1302951096939572</v>
+        <v>0.1524683772025791</v>
       </c>
       <c r="P13">
-        <v>0.1302951096939572</v>
+        <v>0.1524683772025791</v>
       </c>
       <c r="Q13">
-        <v>18.52605384308344</v>
+        <v>4.240745898634889</v>
       </c>
       <c r="R13">
-        <v>18.52605384308344</v>
+        <v>38.166713087714</v>
       </c>
       <c r="S13">
-        <v>0.05665389781414171</v>
+        <v>0.00901111816291217</v>
       </c>
       <c r="T13">
-        <v>0.05665389781414171</v>
+        <v>0.00901111816291217</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.986863132142566</v>
+        <v>0.7172043333333334</v>
       </c>
       <c r="H14">
-        <v>0.986863132142566</v>
+        <v>2.151613</v>
       </c>
       <c r="I14">
-        <v>0.2706294913696557</v>
+        <v>0.1526532566363432</v>
       </c>
       <c r="J14">
-        <v>0.2706294913696557</v>
+        <v>0.1526532566363432</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>22.6781126215234</v>
+        <v>25.84039</v>
       </c>
       <c r="N14">
-        <v>22.6781126215234</v>
+        <v>77.52117</v>
       </c>
       <c r="O14">
-        <v>0.2528922870300491</v>
+        <v>0.2579718564739331</v>
       </c>
       <c r="P14">
-        <v>0.2528922870300491</v>
+        <v>0.2579718564739332</v>
       </c>
       <c r="Q14">
-        <v>22.38019325275844</v>
+        <v>18.53283968302334</v>
       </c>
       <c r="R14">
-        <v>22.38019325275844</v>
+        <v>166.79555714721</v>
       </c>
       <c r="S14">
-        <v>0.06844011101025116</v>
+        <v>0.0393802440112692</v>
       </c>
       <c r="T14">
-        <v>0.06844011101025116</v>
+        <v>0.0393802440112692</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.986863132142566</v>
+        <v>0.7172043333333334</v>
       </c>
       <c r="H15">
-        <v>0.986863132142566</v>
+        <v>2.151613</v>
       </c>
       <c r="I15">
-        <v>0.2706294913696557</v>
+        <v>0.1526532566363432</v>
       </c>
       <c r="J15">
-        <v>0.2706294913696557</v>
+        <v>0.1526532566363432</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.8133852144442</v>
+        <v>14.837618</v>
       </c>
       <c r="N15">
-        <v>14.8133852144442</v>
+        <v>44.512854</v>
       </c>
       <c r="O15">
-        <v>0.165189710804349</v>
+        <v>0.1481280995027957</v>
       </c>
       <c r="P15">
-        <v>0.165189710804349</v>
+        <v>0.1481280995027957</v>
       </c>
       <c r="Q15">
-        <v>14.61878373036078</v>
+        <v>10.64160392594467</v>
       </c>
       <c r="R15">
-        <v>14.61878373036078</v>
+        <v>95.774435333502</v>
       </c>
       <c r="S15">
-        <v>0.04470520741448149</v>
+        <v>0.02261223678845405</v>
       </c>
       <c r="T15">
-        <v>0.04470520741448149</v>
+        <v>0.02261223678845405</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.986863132142566</v>
+        <v>0.7172043333333334</v>
       </c>
       <c r="H16">
-        <v>0.986863132142566</v>
+        <v>2.151613</v>
       </c>
       <c r="I16">
-        <v>0.2706294913696557</v>
+        <v>0.1526532566363432</v>
       </c>
       <c r="J16">
-        <v>0.2706294913696557</v>
+        <v>0.1526532566363432</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.01579144451239</v>
+        <v>9.696099333333335</v>
       </c>
       <c r="N16">
-        <v>9.01579144451239</v>
+        <v>29.088298</v>
       </c>
       <c r="O16">
-        <v>0.1005385305135471</v>
+        <v>0.09679887747730068</v>
       </c>
       <c r="P16">
-        <v>0.1005385305135471</v>
+        <v>0.09679887747730068</v>
       </c>
       <c r="Q16">
-        <v>8.897352183675647</v>
+        <v>6.954084458297113</v>
       </c>
       <c r="R16">
-        <v>8.897352183675647</v>
+        <v>62.58676012467401</v>
       </c>
       <c r="S16">
-        <v>0.02720869137593386</v>
+        <v>0.01477666388565232</v>
       </c>
       <c r="T16">
-        <v>0.02720869137593386</v>
+        <v>0.01477666388565232</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.986863132142566</v>
+        <v>0.7172043333333334</v>
       </c>
       <c r="H17">
-        <v>0.986863132142566</v>
+        <v>2.151613</v>
       </c>
       <c r="I17">
-        <v>0.2706294913696557</v>
+        <v>0.1526532566363432</v>
       </c>
       <c r="J17">
-        <v>0.2706294913696557</v>
+        <v>0.1526532566363432</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.263555245816</v>
+        <v>29.18610833333333</v>
       </c>
       <c r="N17">
-        <v>26.263555245816</v>
+        <v>87.558325</v>
       </c>
       <c r="O17">
-        <v>0.2928749258150692</v>
+        <v>0.2913731004059664</v>
       </c>
       <c r="P17">
-        <v>0.2928749258150692</v>
+        <v>0.2913731004059664</v>
       </c>
       <c r="Q17">
-        <v>25.9185343910853</v>
+        <v>20.93240336980278</v>
       </c>
       <c r="R17">
-        <v>25.9185343910853</v>
+        <v>188.391630328225</v>
       </c>
       <c r="S17">
-        <v>0.07926059220825783</v>
+        <v>0.04447905267319897</v>
       </c>
       <c r="T17">
-        <v>0.07926059220825783</v>
+        <v>0.04447905267319897</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.986863132142566</v>
+        <v>0.7172043333333334</v>
       </c>
       <c r="H18">
-        <v>0.986863132142566</v>
+        <v>2.151613</v>
       </c>
       <c r="I18">
-        <v>0.2706294913696557</v>
+        <v>0.1526532566363432</v>
       </c>
       <c r="J18">
-        <v>0.2706294913696557</v>
+        <v>0.1526532566363432</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.21993044544737</v>
+        <v>5.334888666666667</v>
       </c>
       <c r="N18">
-        <v>5.21993044544737</v>
+        <v>16.004666</v>
       </c>
       <c r="O18">
-        <v>0.0582094361430282</v>
+        <v>0.05325968893742494</v>
       </c>
       <c r="P18">
-        <v>0.0582094361430282</v>
+        <v>0.05325968893742494</v>
       </c>
       <c r="Q18">
-        <v>5.151356908960532</v>
+        <v>3.826205269584223</v>
       </c>
       <c r="R18">
-        <v>5.151356908960532</v>
+        <v>34.43584742625801</v>
       </c>
       <c r="S18">
-        <v>0.01575319009630217</v>
+        <v>0.008130264963736535</v>
       </c>
       <c r="T18">
-        <v>0.01575319009630217</v>
+        <v>0.008130264963736535</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.986863132142566</v>
+        <v>0.7172043333333334</v>
       </c>
       <c r="H19">
-        <v>0.986863132142566</v>
+        <v>2.151613</v>
       </c>
       <c r="I19">
-        <v>0.2706294913696557</v>
+        <v>0.1526532566363432</v>
       </c>
       <c r="J19">
-        <v>0.2706294913696557</v>
+        <v>0.1526532566363432</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.6842123038818</v>
+        <v>15.27237266666666</v>
       </c>
       <c r="N19">
-        <v>11.6842123038818</v>
+        <v>45.81711799999999</v>
       </c>
       <c r="O19">
-        <v>0.1302951096939572</v>
+        <v>0.1524683772025791</v>
       </c>
       <c r="P19">
-        <v>0.1302951096939572</v>
+        <v>0.1524683772025791</v>
       </c>
       <c r="Q19">
-        <v>11.5307183508275</v>
+        <v>10.95341185681489</v>
       </c>
       <c r="R19">
-        <v>11.5307183508275</v>
+        <v>98.580706711334</v>
       </c>
       <c r="S19">
-        <v>0.03526169926442914</v>
+        <v>0.02327479431403208</v>
       </c>
       <c r="T19">
-        <v>0.03526169926442914</v>
+        <v>0.02327479431403208</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.381779439024247</v>
+        <v>1.672201</v>
       </c>
       <c r="H20">
-        <v>0.381779439024247</v>
+        <v>5.016603</v>
       </c>
       <c r="I20">
-        <v>0.1046961549513011</v>
+        <v>0.3559193894076904</v>
       </c>
       <c r="J20">
-        <v>0.1046961549513011</v>
+        <v>0.3559193894076904</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>22.6781126215234</v>
+        <v>25.84039</v>
       </c>
       <c r="N20">
-        <v>22.6781126215234</v>
+        <v>77.52117</v>
       </c>
       <c r="O20">
-        <v>0.2528922870300491</v>
+        <v>0.2579718564739331</v>
       </c>
       <c r="P20">
-        <v>0.2528922870300491</v>
+        <v>0.2579718564739332</v>
       </c>
       <c r="Q20">
-        <v>8.658037114773899</v>
+        <v>43.21032599839</v>
       </c>
       <c r="R20">
-        <v>8.658037114773899</v>
+        <v>388.89293398551</v>
       </c>
       <c r="S20">
-        <v>0.02647685006888694</v>
+        <v>0.09181718564057061</v>
       </c>
       <c r="T20">
-        <v>0.02647685006888694</v>
+        <v>0.09181718564057062</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.381779439024247</v>
+        <v>1.672201</v>
       </c>
       <c r="H21">
-        <v>0.381779439024247</v>
+        <v>5.016603</v>
       </c>
       <c r="I21">
-        <v>0.1046961549513011</v>
+        <v>0.3559193894076904</v>
       </c>
       <c r="J21">
-        <v>0.1046961549513011</v>
+        <v>0.3559193894076904</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.8133852144442</v>
+        <v>14.837618</v>
       </c>
       <c r="N21">
-        <v>14.8133852144442</v>
+        <v>44.512854</v>
       </c>
       <c r="O21">
-        <v>0.165189710804349</v>
+        <v>0.1481280995027957</v>
       </c>
       <c r="P21">
-        <v>0.165189710804349</v>
+        <v>0.1481280995027957</v>
       </c>
       <c r="Q21">
-        <v>5.655445897220582</v>
+        <v>24.811479657218</v>
       </c>
       <c r="R21">
-        <v>5.655445897220582</v>
+        <v>223.303316914962</v>
       </c>
       <c r="S21">
-        <v>0.01729472755873275</v>
+        <v>0.05272166272915664</v>
       </c>
       <c r="T21">
-        <v>0.01729472755873275</v>
+        <v>0.05272166272915664</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.381779439024247</v>
+        <v>1.672201</v>
       </c>
       <c r="H22">
-        <v>0.381779439024247</v>
+        <v>5.016603</v>
       </c>
       <c r="I22">
-        <v>0.1046961549513011</v>
+        <v>0.3559193894076904</v>
       </c>
       <c r="J22">
-        <v>0.1046961549513011</v>
+        <v>0.3559193894076904</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.01579144451239</v>
+        <v>9.696099333333335</v>
       </c>
       <c r="N22">
-        <v>9.01579144451239</v>
+        <v>29.088298</v>
       </c>
       <c r="O22">
-        <v>0.1005385305135471</v>
+        <v>0.09679887747730068</v>
       </c>
       <c r="P22">
-        <v>0.1005385305135471</v>
+        <v>0.09679887747730068</v>
       </c>
       <c r="Q22">
-        <v>3.442043800045546</v>
+        <v>16.21382700129934</v>
       </c>
       <c r="R22">
-        <v>3.442043800045546</v>
+        <v>145.924443011694</v>
       </c>
       <c r="S22">
-        <v>0.01052599756922244</v>
+        <v>0.03445259736707069</v>
       </c>
       <c r="T22">
-        <v>0.01052599756922244</v>
+        <v>0.03445259736707069</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.381779439024247</v>
+        <v>1.672201</v>
       </c>
       <c r="H23">
-        <v>0.381779439024247</v>
+        <v>5.016603</v>
       </c>
       <c r="I23">
-        <v>0.1046961549513011</v>
+        <v>0.3559193894076904</v>
       </c>
       <c r="J23">
-        <v>0.1046961549513011</v>
+        <v>0.3559193894076904</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>26.263555245816</v>
+        <v>29.18610833333333</v>
       </c>
       <c r="N23">
-        <v>26.263555245816</v>
+        <v>87.558325</v>
       </c>
       <c r="O23">
-        <v>0.2928749258150692</v>
+        <v>0.2913731004059664</v>
       </c>
       <c r="P23">
-        <v>0.2928749258150692</v>
+        <v>0.2913731004059664</v>
       </c>
       <c r="Q23">
-        <v>10.02688538852995</v>
+        <v>48.80503954110834</v>
       </c>
       <c r="R23">
-        <v>10.02688538852995</v>
+        <v>439.245355869975</v>
       </c>
       <c r="S23">
-        <v>0.03066287861448531</v>
+        <v>0.1037053359863172</v>
       </c>
       <c r="T23">
-        <v>0.03066287861448531</v>
+        <v>0.1037053359863172</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.381779439024247</v>
+        <v>1.672201</v>
       </c>
       <c r="H24">
-        <v>0.381779439024247</v>
+        <v>5.016603</v>
       </c>
       <c r="I24">
-        <v>0.1046961549513011</v>
+        <v>0.3559193894076904</v>
       </c>
       <c r="J24">
-        <v>0.1046961549513011</v>
+        <v>0.3559193894076904</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.21993044544737</v>
+        <v>5.334888666666667</v>
       </c>
       <c r="N24">
-        <v>5.21993044544737</v>
+        <v>16.004666</v>
       </c>
       <c r="O24">
-        <v>0.0582094361430282</v>
+        <v>0.05325968893742494</v>
       </c>
       <c r="P24">
-        <v>0.0582094361430282</v>
+        <v>0.05325968893742494</v>
       </c>
       <c r="Q24">
-        <v>1.992862117208485</v>
+        <v>8.921006163288668</v>
       </c>
       <c r="R24">
-        <v>1.992862117208485</v>
+        <v>80.289055469598</v>
       </c>
       <c r="S24">
-        <v>0.006094304146058349</v>
+        <v>0.0189561559666518</v>
       </c>
       <c r="T24">
-        <v>0.006094304146058349</v>
+        <v>0.0189561559666518</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.672201</v>
+      </c>
+      <c r="H25">
+        <v>5.016603</v>
+      </c>
+      <c r="I25">
+        <v>0.3559193894076904</v>
+      </c>
+      <c r="J25">
+        <v>0.3559193894076904</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>15.27237266666666</v>
+      </c>
+      <c r="N25">
+        <v>45.81711799999999</v>
+      </c>
+      <c r="O25">
+        <v>0.1524683772025791</v>
+      </c>
+      <c r="P25">
+        <v>0.1524683772025791</v>
+      </c>
+      <c r="Q25">
+        <v>25.53847684557266</v>
+      </c>
+      <c r="R25">
+        <v>229.846291610154</v>
+      </c>
+      <c r="S25">
+        <v>0.05426645171792336</v>
+      </c>
+      <c r="T25">
+        <v>0.05426645171792336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.050331666666666</v>
+      </c>
+      <c r="H26">
+        <v>3.150995</v>
+      </c>
+      <c r="I26">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="J26">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>25.84039</v>
+      </c>
+      <c r="N26">
+        <v>77.52117</v>
+      </c>
+      <c r="O26">
+        <v>0.2579718564739331</v>
+      </c>
+      <c r="P26">
+        <v>0.2579718564739332</v>
+      </c>
+      <c r="Q26">
+        <v>27.14097989601666</v>
+      </c>
+      <c r="R26">
+        <v>244.26881906415</v>
+      </c>
+      <c r="S26">
+        <v>0.05767159427754393</v>
+      </c>
+      <c r="T26">
+        <v>0.05767159427754395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.050331666666666</v>
+      </c>
+      <c r="H27">
+        <v>3.150995</v>
+      </c>
+      <c r="I27">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="J27">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>14.837618</v>
+      </c>
+      <c r="N27">
+        <v>44.512854</v>
+      </c>
+      <c r="O27">
+        <v>0.1481280995027957</v>
+      </c>
+      <c r="P27">
+        <v>0.1481280995027957</v>
+      </c>
+      <c r="Q27">
+        <v>15.58442004330333</v>
+      </c>
+      <c r="R27">
+        <v>140.25978038973</v>
+      </c>
+      <c r="S27">
+        <v>0.03311517687392423</v>
+      </c>
+      <c r="T27">
+        <v>0.03311517687392423</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.050331666666666</v>
+      </c>
+      <c r="H28">
+        <v>3.150995</v>
+      </c>
+      <c r="I28">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="J28">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>9.696099333333335</v>
+      </c>
+      <c r="N28">
+        <v>29.088298</v>
+      </c>
+      <c r="O28">
+        <v>0.09679887747730068</v>
+      </c>
+      <c r="P28">
+        <v>0.09679887747730068</v>
+      </c>
+      <c r="Q28">
+        <v>10.18412017294555</v>
+      </c>
+      <c r="R28">
+        <v>91.65708155650999</v>
+      </c>
+      <c r="S28">
+        <v>0.02164013417857719</v>
+      </c>
+      <c r="T28">
+        <v>0.02164013417857719</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.050331666666666</v>
+      </c>
+      <c r="H29">
+        <v>3.150995</v>
+      </c>
+      <c r="I29">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="J29">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>29.18610833333333</v>
+      </c>
+      <c r="N29">
+        <v>87.558325</v>
+      </c>
+      <c r="O29">
+        <v>0.2913731004059664</v>
+      </c>
+      <c r="P29">
+        <v>0.2913731004059664</v>
+      </c>
+      <c r="Q29">
+        <v>30.65509380926388</v>
+      </c>
+      <c r="R29">
+        <v>275.895844283375</v>
+      </c>
+      <c r="S29">
+        <v>0.06513869946778837</v>
+      </c>
+      <c r="T29">
+        <v>0.06513869946778837</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.050331666666666</v>
+      </c>
+      <c r="H30">
+        <v>3.150995</v>
+      </c>
+      <c r="I30">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="J30">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>5.334888666666667</v>
+      </c>
+      <c r="N30">
+        <v>16.004666</v>
+      </c>
+      <c r="O30">
+        <v>0.05325968893742494</v>
+      </c>
+      <c r="P30">
+        <v>0.05325968893742494</v>
+      </c>
+      <c r="Q30">
+        <v>5.60340250474111</v>
+      </c>
+      <c r="R30">
+        <v>50.43062254266999</v>
+      </c>
+      <c r="S30">
+        <v>0.01190661343346085</v>
+      </c>
+      <c r="T30">
+        <v>0.01190661343346085</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.050331666666666</v>
+      </c>
+      <c r="H31">
+        <v>3.150995</v>
+      </c>
+      <c r="I31">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="J31">
+        <v>0.223557697594704</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>15.27237266666666</v>
+      </c>
+      <c r="N31">
+        <v>45.81711799999999</v>
+      </c>
+      <c r="O31">
+        <v>0.1524683772025791</v>
+      </c>
+      <c r="P31">
+        <v>0.1524683772025791</v>
+      </c>
+      <c r="Q31">
+        <v>16.04105663693444</v>
+      </c>
+      <c r="R31">
+        <v>144.36950973241</v>
+      </c>
+      <c r="S31">
+        <v>0.03408547936340944</v>
+      </c>
+      <c r="T31">
+        <v>0.03408547936340944</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.7427696666666667</v>
+      </c>
+      <c r="H32">
+        <v>2.228309</v>
+      </c>
+      <c r="I32">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="J32">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>25.84039</v>
+      </c>
+      <c r="N32">
+        <v>77.52117</v>
+      </c>
+      <c r="O32">
+        <v>0.2579718564739331</v>
+      </c>
+      <c r="P32">
+        <v>0.2579718564739332</v>
+      </c>
+      <c r="Q32">
+        <v>19.19345786683667</v>
+      </c>
+      <c r="R32">
+        <v>172.74112080153</v>
+      </c>
+      <c r="S32">
+        <v>0.04078398492317496</v>
+      </c>
+      <c r="T32">
+        <v>0.04078398492317496</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.7427696666666667</v>
+      </c>
+      <c r="H33">
+        <v>2.228309</v>
+      </c>
+      <c r="I33">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="J33">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>14.837618</v>
+      </c>
+      <c r="N33">
+        <v>44.512854</v>
+      </c>
+      <c r="O33">
+        <v>0.1481280995027957</v>
+      </c>
+      <c r="P33">
+        <v>0.1481280995027957</v>
+      </c>
+      <c r="Q33">
+        <v>11.02093257598733</v>
+      </c>
+      <c r="R33">
+        <v>99.18839318388599</v>
+      </c>
+      <c r="S33">
+        <v>0.02341826840879063</v>
+      </c>
+      <c r="T33">
+        <v>0.02341826840879063</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.7427696666666667</v>
+      </c>
+      <c r="H34">
+        <v>2.228309</v>
+      </c>
+      <c r="I34">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="J34">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>9.696099333333335</v>
+      </c>
+      <c r="N34">
+        <v>29.088298</v>
+      </c>
+      <c r="O34">
+        <v>0.09679887747730068</v>
+      </c>
+      <c r="P34">
+        <v>0.09679887747730068</v>
+      </c>
+      <c r="Q34">
+        <v>7.201968469786889</v>
+      </c>
+      <c r="R34">
+        <v>64.81771622808201</v>
+      </c>
+      <c r="S34">
+        <v>0.01530339012005134</v>
+      </c>
+      <c r="T34">
+        <v>0.01530339012005134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.381779439024247</v>
-      </c>
-      <c r="H25">
-        <v>0.381779439024247</v>
-      </c>
-      <c r="I25">
-        <v>0.1046961549513011</v>
-      </c>
-      <c r="J25">
-        <v>0.1046961549513011</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>11.6842123038818</v>
-      </c>
-      <c r="N25">
-        <v>11.6842123038818</v>
-      </c>
-      <c r="O25">
-        <v>0.1302951096939572</v>
-      </c>
-      <c r="P25">
-        <v>0.1302951096939572</v>
-      </c>
-      <c r="Q25">
-        <v>4.460792018816198</v>
-      </c>
-      <c r="R25">
-        <v>4.460792018816198</v>
-      </c>
-      <c r="S25">
-        <v>0.01364139699391532</v>
-      </c>
-      <c r="T25">
-        <v>0.01364139699391532</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.7427696666666667</v>
+      </c>
+      <c r="H35">
+        <v>2.228309</v>
+      </c>
+      <c r="I35">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="J35">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>29.18610833333333</v>
+      </c>
+      <c r="N35">
+        <v>87.558325</v>
+      </c>
+      <c r="O35">
+        <v>0.2913731004059664</v>
+      </c>
+      <c r="P35">
+        <v>0.2913731004059664</v>
+      </c>
+      <c r="Q35">
+        <v>21.67855595804722</v>
+      </c>
+      <c r="R35">
+        <v>195.107003622425</v>
+      </c>
+      <c r="S35">
+        <v>0.04606454477787749</v>
+      </c>
+      <c r="T35">
+        <v>0.04606454477787749</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.7427696666666667</v>
+      </c>
+      <c r="H36">
+        <v>2.228309</v>
+      </c>
+      <c r="I36">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="J36">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>5.334888666666667</v>
+      </c>
+      <c r="N36">
+        <v>16.004666</v>
+      </c>
+      <c r="O36">
+        <v>0.05325968893742494</v>
+      </c>
+      <c r="P36">
+        <v>0.05325968893742494</v>
+      </c>
+      <c r="Q36">
+        <v>3.962593476643778</v>
+      </c>
+      <c r="R36">
+        <v>35.663341289794</v>
+      </c>
+      <c r="S36">
+        <v>0.008420074888504017</v>
+      </c>
+      <c r="T36">
+        <v>0.008420074888504017</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.7427696666666667</v>
+      </c>
+      <c r="H37">
+        <v>2.228309</v>
+      </c>
+      <c r="I37">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="J37">
+        <v>0.1580947064560742</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>15.27237266666666</v>
+      </c>
+      <c r="N37">
+        <v>45.81711799999999</v>
+      </c>
+      <c r="O37">
+        <v>0.1524683772025791</v>
+      </c>
+      <c r="P37">
+        <v>0.1524683772025791</v>
+      </c>
+      <c r="Q37">
+        <v>11.34385515482911</v>
+      </c>
+      <c r="R37">
+        <v>102.094696393462</v>
+      </c>
+      <c r="S37">
+        <v>0.02410444333767573</v>
+      </c>
+      <c r="T37">
+        <v>0.02410444333767573</v>
       </c>
     </row>
   </sheetData>
